--- a/SUMMARY SHEETS/TOTALPROD_CPB.xlsx
+++ b/SUMMARY SHEETS/TOTALPROD_CPB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9989B9B4-E729-E044-8AAF-81004F43BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C9EC42-F0EA-624E-94FA-4B25D8F7EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="800" windowWidth="24700" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NON-CORE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="121">
   <si>
     <t>Site</t>
   </si>
@@ -376,12 +376,21 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>Bold</t>
+  </si>
+  <si>
+    <t>high numbers in old data sheet that sally annotated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -397,13 +406,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,9 +476,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:M313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -802,7 +871,7 @@
       <c r="K2">
         <v>2.2483684104611901</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>-1.3755669139279501</v>
       </c>
     </row>
@@ -878,7 +947,7 @@
       <c r="K4">
         <v>4.5766710661175098</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>-1.41521759629777</v>
       </c>
     </row>
@@ -930,7 +999,7 @@
       <c r="C6">
         <v>7.5183010281650101E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>7.7034674684084902E-3</v>
       </c>
       <c r="E6">
@@ -951,10 +1020,10 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>2.3022479891743499</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>-1.27761922802874</v>
       </c>
     </row>
@@ -992,7 +1061,7 @@
       <c r="K7">
         <v>2.42640320220747</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>-1.92640320220747</v>
       </c>
     </row>
@@ -1030,7 +1099,7 @@
       <c r="K8">
         <v>2.7316906779977899</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>-1.24585910656248</v>
       </c>
     </row>
@@ -1106,7 +1175,7 @@
       <c r="K10">
         <v>3.6163797529905399</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>-1.81116763969033</v>
       </c>
     </row>
@@ -1182,7 +1251,7 @@
       <c r="K12">
         <v>2.1721511173055901</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>-1.0046412597416901</v>
       </c>
     </row>
@@ -1220,7 +1289,7 @@
       <c r="K13">
         <v>3.1856865236776599</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>-1.5161938959816199</v>
       </c>
     </row>
@@ -1258,7 +1327,7 @@
       <c r="K14">
         <v>2.4415345858076001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>-1.9415345858076001</v>
       </c>
     </row>
@@ -1328,7 +1397,7 @@
       <c r="K16">
         <v>2.76888087282759</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>-1.4487408010530101</v>
       </c>
     </row>
@@ -1380,7 +1449,7 @@
       <c r="C18">
         <v>0.21868486843478799</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <v>1.0642963471232501</v>
       </c>
       <c r="E18">
@@ -1401,10 +1470,10 @@
       <c r="J18" t="s">
         <v>12</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="10">
         <v>6.2132184026861497</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>-1.3464146099005501</v>
       </c>
     </row>
@@ -1564,7 +1633,7 @@
       <c r="C23">
         <v>1.0284235636463201E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>2.0175397231666701E-2</v>
       </c>
       <c r="E23">
@@ -1588,7 +1657,7 @@
       <c r="K23">
         <v>3.6294009486813601</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>-1.6676219750322201</v>
       </c>
     </row>
@@ -1626,7 +1695,7 @@
       <c r="K24">
         <v>2.3028071314058298</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>-1.32031458391211</v>
       </c>
     </row>
@@ -1664,7 +1733,7 @@
       <c r="K25">
         <v>3.5690293973807301</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>-1.4026755566853999</v>
       </c>
     </row>
@@ -1740,7 +1809,7 @@
       <c r="K27">
         <v>2.6405156537348802</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>-1.5442040413507601</v>
       </c>
     </row>
@@ -1848,7 +1917,7 @@
       <c r="K30">
         <v>3.3897945840481598</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>-1.06893682473573</v>
       </c>
     </row>
@@ -1962,7 +2031,7 @@
       <c r="K33">
         <v>4.2091464260707498</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="8">
         <v>-3.3440215535615101</v>
       </c>
     </row>
@@ -2000,7 +2069,7 @@
       <c r="K34">
         <v>4.1499490126805698</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>-2.5709947242633402</v>
       </c>
     </row>
@@ -2222,7 +2291,7 @@
       <c r="K40">
         <v>2.3153920480543899</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>-1.25205505718337</v>
       </c>
     </row>
@@ -2260,7 +2329,7 @@
       <c r="K41">
         <v>2.6696712494241899</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>-1.2884585087041101</v>
       </c>
     </row>
@@ -2336,7 +2405,7 @@
       <c r="K43">
         <v>1.8722066919781299</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="5">
         <v>1.02525450900311</v>
       </c>
     </row>
@@ -2450,7 +2519,7 @@
       <c r="K46">
         <v>2.2313921739253901</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>-1.7313921739253899</v>
       </c>
     </row>
@@ -2488,7 +2557,7 @@
       <c r="K47">
         <v>4.9244556215817896</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="8">
         <v>-3.0639257782906202</v>
       </c>
     </row>
@@ -2678,7 +2747,7 @@
       <c r="K52">
         <v>3.3489664917320998</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="6">
         <v>-2.8489664917320998</v>
       </c>
     </row>
@@ -2824,7 +2893,7 @@
       <c r="K56">
         <v>2.2483684104611901</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="5">
         <v>1.2128378898202301</v>
       </c>
     </row>
@@ -2900,7 +2969,7 @@
       <c r="K58">
         <v>4.5766710661175098</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="6">
         <v>-2.5129627251403499</v>
       </c>
     </row>
@@ -3160,7 +3229,7 @@
       <c r="K65">
         <v>3.6163797529905399</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="6">
         <v>-2.4467582944334199</v>
       </c>
     </row>
@@ -3338,7 +3407,7 @@
       <c r="K70">
         <v>3.1856865236776599</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>-1.99855521994904</v>
       </c>
     </row>
@@ -3414,7 +3483,7 @@
       <c r="K72">
         <v>2.4415345858076001</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="3">
         <v>-1.2085703042983</v>
       </c>
     </row>
@@ -3452,7 +3521,7 @@
       <c r="K73">
         <v>2.76888087282759</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>-1.87598609886595</v>
       </c>
     </row>
@@ -3490,7 +3559,7 @@
       <c r="K74">
         <v>2.03913362834794</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="3">
         <v>-1.53913362834794</v>
       </c>
     </row>
@@ -3528,7 +3597,7 @@
       <c r="K75">
         <v>6.2132184026861497</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="8">
         <v>-3.1315163825052901</v>
       </c>
     </row>
@@ -3712,7 +3781,7 @@
       <c r="K80">
         <v>3.6294009486813601</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="8">
         <v>-3.1294009486813601</v>
       </c>
     </row>
@@ -3750,7 +3819,7 @@
       <c r="K81">
         <v>3.5690293973807301</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>-1.1965319104903001</v>
       </c>
     </row>
@@ -3788,7 +3857,7 @@
       <c r="K82">
         <v>2.3149550338231299</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="3">
         <v>-1.3244443256415499</v>
       </c>
     </row>
@@ -3823,6 +3892,7 @@
       <c r="J83" t="s">
         <v>12</v>
       </c>
+      <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -3896,7 +3966,7 @@
       <c r="K85">
         <v>2.6405156537348802</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="3">
         <v>-1.7642591909893499</v>
       </c>
     </row>
@@ -3966,7 +4036,7 @@
       <c r="K87">
         <v>2.52210096498401</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="5">
         <v>1.7892282147680201</v>
       </c>
     </row>
@@ -4004,7 +4074,7 @@
       <c r="K88">
         <v>2.3144198507695202</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="3">
         <v>-1.8144198507695199</v>
       </c>
     </row>
@@ -4194,7 +4264,7 @@
       <c r="K93">
         <v>4.2091464260707498</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>-1.55329583051463</v>
       </c>
     </row>
@@ -4232,7 +4302,7 @@
       <c r="K94">
         <v>4.1499490126805698</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>-1.81592552950981</v>
       </c>
     </row>
@@ -4308,7 +4378,7 @@
       <c r="K96">
         <v>3.8208928438901402</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>-1.0663499031425201</v>
       </c>
     </row>
@@ -4384,7 +4454,7 @@
       <c r="K98">
         <v>3.6298171179358598</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>-1.45175150724729</v>
       </c>
     </row>
@@ -4714,7 +4784,7 @@
       <c r="K107">
         <v>2.2313921739253901</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="3">
         <v>-1.0784637763815199</v>
       </c>
     </row>
@@ -4752,7 +4822,7 @@
       <c r="K108">
         <v>4.9244556215817896</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="6">
         <v>-2.3485733581772901</v>
       </c>
     </row>
@@ -4980,7 +5050,7 @@
       <c r="K114">
         <v>1.4743189142094499</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="5">
         <v>1.74027986983802</v>
       </c>
     </row>
@@ -5126,7 +5196,7 @@
       <c r="K118">
         <v>3.3139225028627202</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="6">
         <v>-2.4480137449977999</v>
       </c>
     </row>
@@ -5164,7 +5234,7 @@
       <c r="K119">
         <v>5.79023276567482</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="6">
         <v>-2.0542334387213699</v>
       </c>
     </row>
@@ -5240,7 +5310,7 @@
       <c r="K121">
         <v>1.29637187000076</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="5">
         <v>1.7399885804101001</v>
       </c>
     </row>
@@ -5316,7 +5386,7 @@
       <c r="K123">
         <v>4.1486163239302796</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="6">
         <v>-2.6394643105881301</v>
       </c>
     </row>
@@ -5354,7 +5424,7 @@
       <c r="K124">
         <v>1.3947770440484699</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="5">
         <v>1.1610968922135201</v>
       </c>
     </row>
@@ -5392,7 +5462,7 @@
       <c r="K125">
         <v>1.33348735954368</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="4">
         <v>-1.6882016304261602E-2</v>
       </c>
     </row>
@@ -5500,7 +5570,7 @@
       <c r="K128">
         <v>2.7115630250069098</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="6">
         <v>-2.0293857276625902</v>
       </c>
     </row>
@@ -5538,7 +5608,7 @@
       <c r="K129">
         <v>3.9378625381483299</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="8">
         <v>-3.0878517957279801</v>
       </c>
     </row>
@@ -5652,7 +5722,7 @@
       <c r="K132">
         <v>3.2919281990275202</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="6">
         <v>-2.1887551001521799</v>
       </c>
     </row>
@@ -5690,7 +5760,7 @@
       <c r="K133">
         <v>2.4587268178823698</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="3">
         <v>-1.7362845956161499</v>
       </c>
     </row>
@@ -5728,7 +5798,7 @@
       <c r="K134">
         <v>6.4275554064521003</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="6">
         <v>-2.34750680619825</v>
       </c>
     </row>
@@ -5804,7 +5874,7 @@
       <c r="K136">
         <v>2.39811612115545</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="3">
         <v>-1.3573308197010501</v>
       </c>
     </row>
@@ -5880,7 +5950,7 @@
       <c r="K138">
         <v>2.8308187727582999</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="6">
         <v>1.03912100884256</v>
       </c>
     </row>
@@ -6020,7 +6090,7 @@
       <c r="K142">
         <v>4.1115879618272002</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="8">
         <v>-3.6115879618272002</v>
       </c>
     </row>
@@ -6058,7 +6128,7 @@
       <c r="K143">
         <v>3.6260036958644299</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="3">
         <v>-1.1065178063619101</v>
       </c>
     </row>
@@ -6096,7 +6166,7 @@
       <c r="K144">
         <v>3.6679612890430602</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="3">
         <v>-1.4034030548926599</v>
       </c>
     </row>
@@ -6248,7 +6318,7 @@
       <c r="K148">
         <v>3.4834497538851998</v>
       </c>
-      <c r="L148">
+      <c r="L148" s="3">
         <v>-1.5397543139266501</v>
       </c>
     </row>
@@ -6286,7 +6356,7 @@
       <c r="K149">
         <v>3.1424890363753302</v>
       </c>
-      <c r="L149">
+      <c r="L149" s="6">
         <v>-2.23527537782283</v>
       </c>
     </row>
@@ -6324,7 +6394,7 @@
       <c r="K150">
         <v>3.0917947754147899</v>
       </c>
-      <c r="L150">
+      <c r="L150" s="6">
         <v>-2.5917947754147899</v>
       </c>
     </row>
@@ -6400,7 +6470,7 @@
       <c r="K152">
         <v>2.6271071506777002</v>
       </c>
-      <c r="L152">
+      <c r="L152" s="3">
         <v>-1.20014501477405</v>
       </c>
     </row>
@@ -6476,7 +6546,7 @@
       <c r="K154">
         <v>0.698350691492446</v>
       </c>
-      <c r="L154">
+      <c r="L154" s="6">
         <v>1.1573793419118099</v>
       </c>
     </row>
@@ -6514,7 +6584,7 @@
       <c r="K155">
         <v>0.67291978838255295</v>
       </c>
-      <c r="L155">
+      <c r="L155" s="6">
         <v>1.5510609927671399</v>
       </c>
     </row>
@@ -6552,7 +6622,7 @@
       <c r="K156">
         <v>2.07035292849105</v>
       </c>
-      <c r="L156">
+      <c r="L156" s="3">
         <v>-1.08221731212032</v>
       </c>
     </row>
@@ -6590,7 +6660,7 @@
       <c r="K157">
         <v>4.0982680836022896</v>
       </c>
-      <c r="L157">
+      <c r="L157" s="6">
         <v>-2.73196293874018</v>
       </c>
     </row>
@@ -6666,7 +6736,7 @@
       <c r="K159">
         <v>4.4460909412664504</v>
       </c>
-      <c r="L159">
+      <c r="L159" s="8">
         <v>-3.4088396034281501</v>
       </c>
     </row>
@@ -6742,7 +6812,7 @@
       <c r="K161">
         <v>2.35272624447623</v>
       </c>
-      <c r="L161">
+      <c r="L161" s="3">
         <v>-1.85272624447623</v>
       </c>
     </row>
@@ -6780,7 +6850,7 @@
       <c r="K162">
         <v>2.7343828632031899</v>
       </c>
-      <c r="L162">
+      <c r="L162" s="3">
         <v>-1.0633357197710001</v>
       </c>
     </row>
@@ -6818,7 +6888,7 @@
       <c r="K163">
         <v>2.6880222163009901</v>
       </c>
-      <c r="L163">
+      <c r="L163" s="3">
         <v>-1.11723446404841</v>
       </c>
     </row>
@@ -6856,7 +6926,7 @@
       <c r="K164">
         <v>2.7213963223806599</v>
       </c>
-      <c r="L164">
+      <c r="L164" s="6">
         <v>-2.2213963223806599</v>
       </c>
     </row>
@@ -7008,7 +7078,7 @@
       <c r="K168">
         <v>2.6478109353108601</v>
       </c>
-      <c r="L168">
+      <c r="L168" s="7">
         <v>2.15337210881854</v>
       </c>
     </row>
@@ -7186,7 +7256,7 @@
       <c r="K173">
         <v>7.3038466295438402</v>
       </c>
-      <c r="L173">
+      <c r="L173" s="9">
         <v>-4.9305506077627399</v>
       </c>
     </row>
@@ -7262,7 +7332,7 @@
       <c r="K175">
         <v>4.2618872528333398</v>
       </c>
-      <c r="L175">
+      <c r="L175" s="8">
         <v>-3.7618872528333398</v>
       </c>
     </row>
@@ -7370,7 +7440,7 @@
       <c r="K178">
         <v>3.0880866300060199</v>
       </c>
-      <c r="L178">
+      <c r="L178" s="3">
         <v>-1.4614185968476401</v>
       </c>
     </row>
@@ -7522,7 +7592,7 @@
       <c r="K182">
         <v>1.8702201690051199</v>
       </c>
-      <c r="L182">
+      <c r="L182" s="3">
         <v>-1.2444420943613801</v>
       </c>
     </row>
@@ -7598,7 +7668,7 @@
       <c r="K184">
         <v>2.08106612407432</v>
       </c>
-      <c r="L184">
+      <c r="L184" s="3">
         <v>-1.58106612407432</v>
       </c>
     </row>
@@ -7668,7 +7738,7 @@
       <c r="K186">
         <v>4.4307371076737301</v>
       </c>
-      <c r="L186">
+      <c r="L186" s="6">
         <v>-2.7118795130854001</v>
       </c>
     </row>
@@ -7706,7 +7776,7 @@
       <c r="K187">
         <v>2.6132271019002302</v>
       </c>
-      <c r="L187">
+      <c r="L187" s="3">
         <v>-1.7865386667588801</v>
       </c>
     </row>
@@ -7782,7 +7852,7 @@
       <c r="K189">
         <v>2.0920249968938101</v>
       </c>
-      <c r="L189">
+      <c r="L189" s="3">
         <v>-1.5920249968938101</v>
       </c>
     </row>
@@ -7820,7 +7890,7 @@
       <c r="K190">
         <v>1.9627960299632801</v>
       </c>
-      <c r="L190">
+      <c r="L190" s="3">
         <v>-1.4627960299632801</v>
       </c>
     </row>
@@ -7896,7 +7966,7 @@
       <c r="K192">
         <v>1.5982984059279499</v>
       </c>
-      <c r="L192">
+      <c r="L192" s="3">
         <v>-1.0982984059279499</v>
       </c>
     </row>
@@ -7934,7 +8004,7 @@
       <c r="K193">
         <v>3.5227117913636601</v>
       </c>
-      <c r="L193">
+      <c r="L193" s="6">
         <v>-2.4864214591235201</v>
       </c>
     </row>
@@ -7972,7 +8042,7 @@
       <c r="K194">
         <v>2.6972895032564801</v>
       </c>
-      <c r="L194">
+      <c r="L194" s="3">
         <v>-1.0555779655181701</v>
       </c>
     </row>
@@ -8048,7 +8118,7 @@
       <c r="K196">
         <v>3.7716763943476601</v>
       </c>
-      <c r="L196">
+      <c r="L196" s="6">
         <v>-2.2360112740711102</v>
       </c>
     </row>
@@ -8238,7 +8308,7 @@
       <c r="K201">
         <v>2.68041644790235</v>
       </c>
-      <c r="L201">
+      <c r="L201" s="6">
         <v>-2.0249122373497701</v>
       </c>
     </row>
@@ -8422,7 +8492,7 @@
       <c r="K206">
         <v>1.9712108887519899</v>
       </c>
-      <c r="L206">
+      <c r="L206" s="3">
         <v>-1.4712108887519899</v>
       </c>
     </row>
@@ -8498,7 +8568,7 @@
       <c r="K208">
         <v>4.6855570960242199</v>
       </c>
-      <c r="L208">
+      <c r="L208" s="3">
         <v>-1.51976021820791</v>
       </c>
     </row>
@@ -8650,7 +8720,7 @@
       <c r="K212">
         <v>2.2438236726171601</v>
       </c>
-      <c r="L212">
+      <c r="L212" s="3">
         <v>-1.7438236726171601</v>
       </c>
     </row>
@@ -8758,7 +8828,7 @@
       <c r="K215">
         <v>1.5308873835880901</v>
       </c>
-      <c r="L215">
+      <c r="L215" s="7">
         <v>2.1334932769702402</v>
       </c>
     </row>
@@ -8834,7 +8904,7 @@
       <c r="K217">
         <v>0.5</v>
       </c>
-      <c r="L217">
+      <c r="L217" s="6">
         <v>1.73657178661654</v>
       </c>
     </row>
@@ -8942,7 +9012,7 @@
       <c r="K220">
         <v>4.2618872528333398</v>
       </c>
-      <c r="L220">
+      <c r="L220" s="8">
         <v>-3.7618872528333398</v>
       </c>
     </row>
@@ -9056,7 +9126,7 @@
       <c r="K223">
         <v>3.0880866300060199</v>
       </c>
-      <c r="L223">
+      <c r="L223" s="3">
         <v>-1.2301966691153201</v>
       </c>
     </row>
@@ -9322,7 +9392,7 @@
       <c r="K230">
         <v>1.8702201690051199</v>
       </c>
-      <c r="L230">
+      <c r="L230" s="3">
         <v>-1.3702201690051199</v>
       </c>
     </row>
@@ -9474,7 +9544,7 @@
       <c r="K234">
         <v>2.79221349391287</v>
       </c>
-      <c r="L234">
+      <c r="L234" s="3">
         <v>-1.4761239152124099</v>
       </c>
     </row>
@@ -9512,7 +9582,7 @@
       <c r="K235">
         <v>4.4307371076737301</v>
       </c>
-      <c r="L235">
+      <c r="L235" s="6">
         <v>-2.1245129448939801</v>
       </c>
     </row>
@@ -9588,7 +9658,7 @@
       <c r="K237">
         <v>2.0920249968938101</v>
       </c>
-      <c r="L237">
+      <c r="L237" s="3">
         <v>-1.5920249968938101</v>
       </c>
     </row>
@@ -9626,7 +9696,7 @@
       <c r="K238">
         <v>1.9627960299632801</v>
       </c>
-      <c r="L238">
+      <c r="L238" s="3">
         <v>-1.00797697921416</v>
       </c>
     </row>
@@ -9702,7 +9772,7 @@
       <c r="K240">
         <v>0.5</v>
       </c>
-      <c r="L240">
+      <c r="L240" s="6">
         <v>1.3340201159004601</v>
       </c>
     </row>
@@ -9740,7 +9810,7 @@
       <c r="K241">
         <v>3.5227117913636601</v>
       </c>
-      <c r="L241">
+      <c r="L241" s="3">
         <v>-1.3404695321532201</v>
       </c>
     </row>
@@ -9816,7 +9886,7 @@
       <c r="K243">
         <v>3.7716763943476601</v>
       </c>
-      <c r="L243">
+      <c r="L243" s="6">
         <v>-2.0423296367652899</v>
       </c>
     </row>
@@ -10228,7 +10298,7 @@
       <c r="K254">
         <v>1.9712108887519899</v>
       </c>
-      <c r="L254">
+      <c r="L254" s="3">
         <v>-1.4712108887519899</v>
       </c>
     </row>
@@ -10336,7 +10406,7 @@
       <c r="K257">
         <v>2.3804967196598499</v>
       </c>
-      <c r="L257">
+      <c r="L257" s="3">
         <v>-1.8804967196598501</v>
       </c>
     </row>
@@ -10374,7 +10444,7 @@
       <c r="K258">
         <v>4.6855570960242199</v>
       </c>
-      <c r="L258">
+      <c r="L258" s="6">
         <v>-2.8341058783953001</v>
       </c>
     </row>
@@ -10412,7 +10482,7 @@
       <c r="K259">
         <v>0.5</v>
       </c>
-      <c r="L259">
+      <c r="L259" s="3">
         <v>1.97413041491821</v>
       </c>
     </row>
@@ -10450,7 +10520,7 @@
       <c r="K260">
         <v>2.4595287641995101</v>
       </c>
-      <c r="L260">
+      <c r="L260" s="3">
         <v>-1.4593678341085801</v>
       </c>
     </row>
@@ -10488,7 +10558,7 @@
       <c r="K261">
         <v>2.2840058895079398</v>
       </c>
-      <c r="L261">
+      <c r="L261" s="3">
         <v>-1.5326029267429799</v>
       </c>
     </row>
@@ -10526,7 +10596,7 @@
       <c r="K262">
         <v>2.2438236726171601</v>
       </c>
-      <c r="L262">
+      <c r="L262" s="3">
         <v>-1.49392312285729</v>
       </c>
     </row>
@@ -10564,7 +10634,7 @@
       <c r="K263">
         <v>3.3139225028627202</v>
       </c>
-      <c r="L263">
+      <c r="L263" s="6">
         <v>-2.35119361020605</v>
       </c>
     </row>
@@ -10602,7 +10672,7 @@
       <c r="K264">
         <v>5.79023276567482</v>
       </c>
-      <c r="L264">
+      <c r="L264" s="8">
         <v>-3.81993083981085</v>
       </c>
     </row>
@@ -10678,7 +10748,7 @@
       <c r="K266">
         <v>3.41908154549879</v>
       </c>
-      <c r="L266">
+      <c r="L266" s="3">
         <v>-1.7791640575652401</v>
       </c>
     </row>
@@ -10716,7 +10786,7 @@
       <c r="K267">
         <v>1.29637187000076</v>
       </c>
-      <c r="L267">
+      <c r="L267" s="5">
         <v>1.2568474802109</v>
       </c>
     </row>
@@ -10868,7 +10938,7 @@
       <c r="K271">
         <v>2.7115630250069098</v>
       </c>
-      <c r="L271">
+      <c r="L271" s="3">
         <v>-1.4111964627192199</v>
       </c>
     </row>
@@ -10906,7 +10976,7 @@
       <c r="K272">
         <v>3.9378625381483299</v>
       </c>
-      <c r="L272">
+      <c r="L272" s="3">
         <v>-1.30650666239816</v>
       </c>
     </row>
@@ -10944,7 +11014,7 @@
       <c r="K273">
         <v>0.81875827279023705</v>
       </c>
-      <c r="L273">
+      <c r="L273" s="5">
         <v>1.35887055253416</v>
       </c>
     </row>
@@ -11020,7 +11090,7 @@
       <c r="K275">
         <v>2.4587268178823698</v>
       </c>
-      <c r="L275">
+      <c r="L275" s="3">
         <v>-1.95872681788237</v>
       </c>
     </row>
@@ -11058,7 +11128,7 @@
       <c r="K276">
         <v>6.4275554064521003</v>
       </c>
-      <c r="L276">
+      <c r="L276" s="3">
         <v>-1.74590220391536</v>
       </c>
     </row>
@@ -11166,7 +11236,7 @@
       <c r="K279">
         <v>2.39811612115545</v>
       </c>
-      <c r="L279">
+      <c r="L279" s="3">
         <v>-1.89811612115545</v>
       </c>
     </row>
@@ -11204,7 +11274,7 @@
       <c r="K280">
         <v>2.9513513384381498</v>
       </c>
-      <c r="L280">
+      <c r="L280" s="3">
         <v>-1.0195566330277901</v>
       </c>
     </row>
@@ -11306,7 +11376,7 @@
       <c r="K283">
         <v>4.1115879618272002</v>
       </c>
-      <c r="L283">
+      <c r="L283" s="8">
         <v>-3.3211959048818498</v>
       </c>
     </row>
@@ -11344,7 +11414,7 @@
       <c r="K284">
         <v>3.6260036958644299</v>
       </c>
-      <c r="L284">
+      <c r="L284" s="3">
         <v>-1.3831087265572699</v>
       </c>
     </row>
@@ -11488,7 +11558,7 @@
         <v>-0.44939554299629603</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>111</v>
       </c>
@@ -11526,7 +11596,7 @@
         <v>-0.55799469044685801</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>111</v>
       </c>
@@ -11560,11 +11630,11 @@
       <c r="K290">
         <v>3.4834497538851998</v>
       </c>
-      <c r="L290">
+      <c r="L290" s="6">
         <v>-2.0996799524183798</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>111</v>
       </c>
@@ -11602,7 +11672,7 @@
         <v>-0.76651901372077402</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>111</v>
       </c>
@@ -11640,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>111</v>
       </c>
@@ -11678,7 +11748,7 @@
         <v>2.7542600955798399E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>111</v>
       </c>
@@ -11716,7 +11786,7 @@
         <v>-0.77751988289919305</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>111</v>
       </c>
@@ -11750,11 +11820,11 @@
       <c r="K295">
         <v>3.31106972267877</v>
       </c>
-      <c r="L295">
+      <c r="L295" s="3">
         <v>-1.1685257585222799</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>111</v>
       </c>
@@ -11792,7 +11862,7 @@
         <v>0.20140434648890501</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>111</v>
       </c>
@@ -11830,7 +11900,7 @@
         <v>0.69525135593645104</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>111</v>
       </c>
@@ -11864,11 +11934,11 @@
       <c r="K298">
         <v>4.0982680836022896</v>
       </c>
-      <c r="L298">
+      <c r="L298" s="6">
         <v>-2.7863464494425401</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>111</v>
       </c>
@@ -11902,11 +11972,12 @@
       <c r="K299">
         <v>4.0204520713597898</v>
       </c>
-      <c r="L299">
+      <c r="L299" s="6">
         <v>-2.30275191108483</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" s="4"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>111</v>
       </c>
@@ -11938,7 +12009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>111</v>
       </c>
@@ -11976,7 +12047,7 @@
         <v>-0.44242475453926999</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>111</v>
       </c>
@@ -12014,7 +12085,7 @@
         <v>-0.83560930047358495</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>111</v>
       </c>
@@ -12052,7 +12123,7 @@
         <v>-0.61247845262870804</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>111</v>
       </c>
@@ -12162,7 +12233,7 @@
       <c r="K306">
         <v>2.7343828632031899</v>
       </c>
-      <c r="L306">
+      <c r="L306" s="3">
         <v>-1.6054146089102601</v>
       </c>
     </row>
@@ -12238,7 +12309,7 @@
       <c r="K308">
         <v>2.7213963223806599</v>
       </c>
-      <c r="L308">
+      <c r="L308" s="6">
         <v>-2.2213963223806599</v>
       </c>
     </row>
@@ -12276,7 +12347,7 @@
       <c r="K309">
         <v>0.95828725482017096</v>
       </c>
-      <c r="L309">
+      <c r="L309" s="5">
         <v>1.02597096938981</v>
       </c>
     </row>
@@ -12314,7 +12385,7 @@
       <c r="K310">
         <v>1.90141637788853</v>
       </c>
-      <c r="L310">
+      <c r="L310" s="3">
         <v>-1.40125520702436</v>
       </c>
     </row>
@@ -12390,7 +12461,7 @@
       <c r="K312">
         <v>2.6478109353108601</v>
       </c>
-      <c r="L312">
+      <c r="L312" s="3">
         <v>-1.87591717879835</v>
       </c>
     </row>
@@ -12434,10 +12505,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23746B35-817B-7A41-9CC6-861C36DB1C64}">
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12445,7 +12517,7 @@
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12474,7 +12546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -12502,8 +12574,12 @@
       <c r="I2">
         <v>0.19100227659538099</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="3"/>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -12531,8 +12607,12 @@
       <c r="I3">
         <v>0.15675522681145199</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="11"/>
+      <c r="L3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -12548,7 +12628,7 @@
       <c r="E4">
         <v>4.5766710661175098</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.70588235294117696</v>
       </c>
       <c r="G4">
@@ -12561,7 +12641,7 @@
         <v>5.4772570529106002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -12589,8 +12669,14 @@
       <c r="I5">
         <v>0.164554002338097</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -12600,7 +12686,7 @@
       <c r="C6">
         <v>1.5524128488950399E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>3.5740393597370301E-2</v>
       </c>
       <c r="E6">
@@ -12619,7 +12705,7 @@
         <v>5.0588286954167498E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -12648,7 +12734,7 @@
         <v>0.39244600521063699</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -12677,7 +12763,7 @@
         <v>0.104033895160142</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -12706,7 +12792,7 @@
         <v>3.0664127541022299E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12735,7 +12821,7 @@
         <v>9.7377107812734801E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -12764,7 +12850,7 @@
         <v>0.206027325136519</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -12793,7 +12879,7 @@
         <v>0.12998573491073001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -12822,7 +12908,7 @@
         <v>0.102887024087588</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -12851,7 +12937,7 @@
         <v>0.19445437509425501</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -12880,7 +12966,7 @@
         <v>8.1914075092738695E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -13006,13 +13092,13 @@
       <c r="C20">
         <v>0.102747163418889</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.63839056657804005</v>
       </c>
       <c r="E20">
         <v>6.2132184026861497</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.66666666666666696</v>
       </c>
       <c r="G20">
@@ -13122,13 +13208,13 @@
       <c r="C24">
         <v>0.208728465978893</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.75755929244060005</v>
       </c>
       <c r="E24">
         <v>3.6294009486813601</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0.92307692307692302</v>
       </c>
       <c r="G24">
@@ -13302,7 +13388,7 @@
       <c r="E30">
         <v>0.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="11">
         <v>12</v>
       </c>
       <c r="G30">
@@ -13331,7 +13417,7 @@
       <c r="E31">
         <v>2.74562240963163</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>0.54545454545454497</v>
       </c>
       <c r="G31">
@@ -13534,7 +13620,7 @@
       <c r="E38">
         <v>0.5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="11">
         <v>12</v>
       </c>
       <c r="G38">
@@ -13731,7 +13817,7 @@
       <c r="C45">
         <v>4.85491462871354E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.201476481700782</v>
       </c>
       <c r="E45">
@@ -14172,7 +14258,7 @@
       <c r="E60">
         <v>0.5</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="11">
         <v>12</v>
       </c>
       <c r="G60">
@@ -14253,7 +14339,7 @@
       <c r="C63">
         <v>4.4076884072441001E-2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>0.151409935876263</v>
       </c>
       <c r="E63">
@@ -14549,7 +14635,7 @@
       <c r="E73">
         <v>5.79023276567482</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>0.52173913043478304</v>
       </c>
       <c r="G73">
@@ -14578,7 +14664,7 @@
       <c r="E74">
         <v>0.5</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="11">
         <v>12</v>
       </c>
       <c r="G74">
@@ -14897,7 +14983,7 @@
       <c r="E85">
         <v>3.9378625381483299</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>0.85714285714285698</v>
       </c>
       <c r="G85">
@@ -15036,13 +15122,13 @@
       <c r="C90">
         <v>0.86661745017064995</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>5.5702316771701001</v>
       </c>
       <c r="E90">
         <v>6.4275554064521003</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>0.63157894736842102</v>
       </c>
       <c r="G90">
@@ -15332,7 +15418,7 @@
       <c r="E100">
         <v>0.5</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="11">
         <v>12</v>
       </c>
       <c r="G100">
@@ -15361,7 +15447,7 @@
       <c r="E101">
         <v>0.5</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="11">
         <v>12</v>
       </c>
       <c r="G101">
@@ -15390,7 +15476,7 @@
       <c r="E102">
         <v>0.5</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="11">
         <v>12</v>
       </c>
       <c r="G102">
@@ -15471,7 +15557,7 @@
       <c r="C105">
         <v>2.2586463013644201E-4</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>2.0869964505187201E-4</v>
       </c>
       <c r="E105">
@@ -15535,7 +15621,7 @@
       <c r="E107">
         <v>0.5</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="11">
         <v>12</v>
       </c>
       <c r="G107">
@@ -15767,7 +15853,7 @@
       <c r="E115">
         <v>0.5</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="11">
         <v>12</v>
       </c>
       <c r="G115">
@@ -16051,7 +16137,7 @@
       <c r="C125">
         <v>0.52316391297084597</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>0.80902177568737699</v>
       </c>
       <c r="E125">
@@ -16434,7 +16520,7 @@
       <c r="E138">
         <v>2.6478109353108601</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>0.70588235294117696</v>
       </c>
       <c r="G138">
@@ -16550,7 +16636,7 @@
       <c r="E142">
         <v>0.5</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="11">
         <v>12</v>
       </c>
       <c r="G142">
@@ -16637,7 +16723,7 @@
       <c r="E145">
         <v>4.2618872528333398</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>0.63157894736842102</v>
       </c>
       <c r="G145">
@@ -16753,7 +16839,7 @@
       <c r="E149">
         <v>0.5</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="11">
         <v>12</v>
       </c>
       <c r="G149">
@@ -16863,13 +16949,13 @@
       <c r="C153">
         <v>0.407212252782573</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>1.9272466483945101</v>
       </c>
       <c r="E153">
         <v>4.7327815782192202</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>0.75</v>
       </c>
       <c r="G153">
@@ -16898,7 +16984,7 @@
       <c r="E154">
         <v>0.5</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="11">
         <v>12</v>
       </c>
       <c r="G154">
@@ -16927,7 +17013,7 @@
       <c r="E155">
         <v>0.5</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="11">
         <v>12</v>
       </c>
       <c r="G155">
@@ -17043,7 +17129,7 @@
       <c r="E159">
         <v>5.66274419794913</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>0.8</v>
       </c>
       <c r="G159">
@@ -17101,7 +17187,7 @@
       <c r="E161">
         <v>0.5</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="11">
         <v>12</v>
       </c>
       <c r="G161">
@@ -17188,7 +17274,7 @@
       <c r="E164">
         <v>0.5</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="11">
         <v>12</v>
       </c>
       <c r="G164">
@@ -17275,7 +17361,7 @@
       <c r="E167">
         <v>0.5</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="11">
         <v>12</v>
       </c>
       <c r="G167">
@@ -17304,7 +17390,7 @@
       <c r="E168">
         <v>2.79221349391287</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>0.66666666666666696</v>
       </c>
       <c r="G168">
@@ -17333,7 +17419,7 @@
       <c r="E169">
         <v>0.5</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="11">
         <v>12</v>
       </c>
       <c r="G169">
@@ -17362,7 +17448,7 @@
       <c r="E170">
         <v>4.4307371076737301</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="3">
         <v>0.8</v>
       </c>
       <c r="G170">
@@ -17443,7 +17529,7 @@
       <c r="C173">
         <v>8.3790116832170304E-5</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="10">
         <v>6.2454764109850895E-5</v>
       </c>
       <c r="E173">
@@ -17472,7 +17558,7 @@
       <c r="C174">
         <v>2.2194273796156598</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>7.2202404779716298</v>
       </c>
       <c r="E174">
@@ -17623,7 +17709,7 @@
       <c r="E179">
         <v>0.5</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="11">
         <v>12</v>
       </c>
       <c r="G179">
@@ -17652,7 +17738,7 @@
       <c r="E180">
         <v>0.5</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="11">
         <v>12</v>
       </c>
       <c r="G180">
@@ -17855,7 +17941,7 @@
       <c r="E187">
         <v>0.5</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="11">
         <v>12</v>
       </c>
       <c r="G187">
@@ -17884,7 +17970,7 @@
       <c r="E188">
         <v>0.5</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="11">
         <v>12</v>
       </c>
       <c r="G188">
@@ -17913,7 +17999,7 @@
       <c r="E189">
         <v>0.5</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="11">
         <v>12</v>
       </c>
       <c r="G189">
@@ -17971,7 +18057,7 @@
       <c r="E191">
         <v>0.5</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="11">
         <v>12</v>
       </c>
       <c r="G191">
@@ -18087,7 +18173,7 @@
       <c r="E195">
         <v>0.5</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="11">
         <v>12</v>
       </c>
       <c r="G195">
@@ -18261,7 +18347,7 @@
       <c r="E201">
         <v>0.5</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="11">
         <v>12</v>
       </c>
       <c r="G201">
@@ -18348,7 +18434,7 @@
       <c r="E204">
         <v>0.5</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="11">
         <v>12</v>
       </c>
       <c r="G204">
